--- a/biology/Botanique/Potentilla_montana/Potentilla_montana.xlsx
+++ b/biology/Botanique/Potentilla_montana/Potentilla_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Potentille brillante ou Potentille des montagnes (Potentilla montana) est une espèce de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Potentilla splendens Ram</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace haute de 5 20 cm, à souche stolonifère. Les tiges sont très grêles, égalant les feuilles, couvertes, ainsi que les pétioles et les pédicelles, de poils mous étalés ; feuilles radicales à 3 folioles obovales-oblongues, pubescentes et vertes en dessus, soyeuses-argentées en dessous et aux bords, munies au sommet de quelques dents courtes et conniventes ; les caulinaires rares, à 1-3 folioles ; fleurs blanches, grandes (15-20 mm de diamètre), 1-4 sur des pédicelles grêles et longs ; calicule plus petit que le calice ; pétales émarginés, 1-2 fois plus longs que le calice[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace haute de 5 20 cm, à souche stolonifère. Les tiges sont très grêles, égalant les feuilles, couvertes, ainsi que les pétioles et les pédicelles, de poils mous étalés ; feuilles radicales à 3 folioles obovales-oblongues, pubescentes et vertes en dessus, soyeuses-argentées en dessous et aux bords, munies au sommet de quelques dents courtes et conniventes ; les caulinaires rares, à 1-3 folioles ; fleurs blanches, grandes (15-20 mm de diamètre), 1-4 sur des pédicelles grêles et longs ; calicule plus petit que le calice ; pétales émarginés, 1-2 fois plus longs que le calice.
 </t>
         </is>
       </c>
@@ -572,7 +588,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France : Landes et bois siliceux de l'Ouest, des Pyrénées Atlantiques à l'Ille-et-Vilaine, l'Eure et les environs de Paris (malgré son épithète spécifique montana, absente des Alpes et autres régions montagneuses de l'Est). Espagne et Portugal.
 </t>
